--- a/doc/13_外部設計/外部設計書　マニュアル画面.xlsx
+++ b/doc/13_外部設計/外部設計書　マニュアル画面.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\C2\doc\13_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E56A8DB9-7779-43F0-8B95-BCFE923F7181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76AEF93-9069-4913-A723-945BFBCFB859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{206409C9-6AA2-430F-8762-FE90EFEBED11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{206409C9-6AA2-430F-8762-FE90EFEBED11}"/>
   </bookViews>
   <sheets>
     <sheet name="マニュアル画面（一覧）" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="99">
   <si>
     <t>button</t>
     <phoneticPr fontId="3"/>
@@ -680,6 +680,17 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>削除ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>allDelete</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1101,6 +1112,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,12 +1168,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1539,15 +1550,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>104058</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>93678</xdr:rowOff>
+      <xdr:colOff>143472</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>14851</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>20931</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>182070</xdr:rowOff>
+      <xdr:colOff>60345</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>103243</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1562,8 +1573,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5847735" y="1601291"/>
-          <a:ext cx="678873" cy="653747"/>
+          <a:off x="5792782" y="1394334"/>
+          <a:ext cx="665735" cy="679599"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2086,6 +2097,1998 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>75419</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="グラフィックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CC0BDD8-E8C9-68A0-DD21-FCC1E41A4E9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="1619250"/>
+          <a:ext cx="9181319" cy="5181600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71945</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>6226</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24641645-9C03-4FB6-BF92-C529457A4035}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1322070" y="1413510"/>
+          <a:ext cx="670115" cy="688216"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>174245</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111909</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7EDF35C-4A0D-437C-8AD8-BEAA7D7A0B30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5703570" y="1337310"/>
+          <a:ext cx="665735" cy="679599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110490</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>21845</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>74805</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91C16CA-53E5-4D91-AF31-2F3EFDDE0FAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6032319" y="2891790"/>
+          <a:ext cx="662469" cy="709986"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>2007</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>174172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>44086</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17961</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAB161C4-2ECA-7C0B-CB4A-A4A0B3EE30CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10430521" y="1153886"/>
+          <a:ext cx="5800622" cy="3370761"/>
+          <a:chOff x="10386979" y="2242457"/>
+          <a:chExt cx="5800622" cy="3370761"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="グラフィックス 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31E664FF-B510-E478-011E-C69E4FB18A3E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10386979" y="2242457"/>
+            <a:ext cx="5800622" cy="3370761"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="楕円 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99B0A50-B9E0-4C16-BAAF-050C43470145}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11094175" y="3392533"/>
+            <a:ext cx="662469" cy="702366"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+                <a:solidFill>
+                  <a:schemeClr val="tx2">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>236656</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>32657</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>43093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="グラフィックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331340F2-E1CE-8C98-06B0-BB0D7709E42F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10414799" y="4811486"/>
+          <a:ext cx="5804915" cy="3265264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>56061</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>105047</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>217788</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>23642</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{505B86A1-64CF-4936-872A-A2357795CA64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11235690" y="5591447"/>
+          <a:ext cx="662469" cy="702366"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>10887</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>169911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>194051</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>182217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形: 角を丸くする 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC5B4B69-4CAB-41EC-9D99-8EBAF3FB4001}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1175658" y="4480654"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>176065</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12306</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44252792-BEAB-4044-B1C8-68C87FD10C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3343808" y="4506685"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>133943</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>21771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66736</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>34078</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="四角形: 角を丸くする 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34962FDC-6D1B-4E32-8EDF-9CE570872D99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6806886" y="4528457"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>195943</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>110563</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135312</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{710C0728-1000-4FF9-88F8-84A93C4D1F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5366657" y="5138057"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>219642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>71383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>48233</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190434</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429F8324-988D-2014-75DF-16FDCF166377}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8394813" y="4969954"/>
+          <a:ext cx="329334" cy="314994"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="001746"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="4000">
+              <a:solidFill>
+                <a:srgbClr val="001746"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="4000">
+            <a:solidFill>
+              <a:srgbClr val="001746"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>118728</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>132591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623A4704-94E5-444F-BE59-1D7B960FD30E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8629650" y="3567793"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>8165</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>173157</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>23734</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1859D6F6-AD08-4D76-A22B-946006A42831}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5679622" y="6202136"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>242873</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="グラフィックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5FAC1BB-8287-D0A0-0BD7-9ACEB21A3FED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="503584" y="1537253"/>
+          <a:ext cx="9214593" cy="5188226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>86140</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>172279</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>881</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="楕円 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06EBE625-BF3C-4B9F-B71B-69EE0DCA5391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1252331" y="1325218"/>
+          <a:ext cx="670115" cy="688216"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>19878</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>72887</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>182031</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="楕円 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{393AA4A2-3B90-433D-83C8-5DF86CE93E84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5718313" y="1225826"/>
+          <a:ext cx="665735" cy="679599"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2800">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>33130</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192156</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>195283</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111745</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="楕円 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9546020-9535-4986-B323-F4C65587B821}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1451113" y="3266660"/>
+          <a:ext cx="665735" cy="688215"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>212034</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>112644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>122395</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="楕円 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{423125FB-0006-4775-8741-8B9A61AB862D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5910469" y="5685183"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119269</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>139148</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>46383</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>159027</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形: 角を丸くする 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{987637DF-F49C-4257-9DDA-C3188E5DB63C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2544417" y="3597965"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>178904</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>106018</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形: 角を丸くする 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD153BEB-F15B-4309-A774-BF9D7F1422A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5877339" y="3591339"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>132522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>119271</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形: 角を丸くする 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA6D74B8-D124-4907-84E2-B00A10FB4B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7653131" y="3591339"/>
+          <a:ext cx="934279" cy="404192"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>13251</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175404</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="楕円 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59910B5C-D0B8-4BB2-B921-EB0EF84554F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2438399" y="5546035"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>212034</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>99392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>122395</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33E5753C-2330-40D7-8FCD-FF6C91ADED35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8680173" y="4518992"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>125895</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>36256</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{235EF75C-DB3F-4189-BAE0-DE5C17843EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8342243" y="5678556"/>
+          <a:ext cx="665735" cy="679598"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2800">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2405,7 +4408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242E1929-4B41-45E1-A6FC-4A03BF7950EA}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AW85" sqref="AW85"/>
     </sheetView>
   </sheetViews>
@@ -2417,198 +4420,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="46">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="45" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="48" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14"/>
@@ -7111,6 +9114,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -7127,7 +9131,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -7143,7 +9146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF902D7-F4E1-4D7C-B83D-B908A32E132B}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BA24" sqref="BA24"/>
     </sheetView>
   </sheetViews>
@@ -7155,198 +9158,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="46">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="45" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="48" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14"/>
@@ -11850,6 +13853,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -11866,7 +13870,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -11882,8 +13885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25FD1CD3-5760-4D56-82DE-E7A7DA27DA79}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA96" sqref="AA96"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11894,198 +13897,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="46">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="45" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="48" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14"/>
@@ -16605,6 +18608,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -16621,7 +18625,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -16629,6 +18632,7 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16636,8 +18640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A760A90D-8FE0-42BC-9A36-95966594066E}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="74" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AN54" sqref="AN54"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H77" sqref="H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16648,198 +18652,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="38" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38" t="s">
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
+      <c r="V1" s="40"/>
+      <c r="W1" s="40"/>
+      <c r="X1" s="40"/>
+      <c r="Y1" s="40"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="40"/>
+      <c r="AB1" s="40"/>
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="40"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="40"/>
+      <c r="AH1" s="40"/>
+      <c r="AI1" s="40"/>
+      <c r="AJ1" s="40"/>
+      <c r="AK1" s="40"/>
+      <c r="AL1" s="40"/>
+      <c r="AM1" s="40"/>
+      <c r="AN1" s="41"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40" t="s">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="41" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="42"/>
-      <c r="AJ2" s="42"/>
-      <c r="AK2" s="42"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="40" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40" t="s">
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="44">
+      <c r="X3" s="42"/>
+      <c r="Y3" s="46">
         <v>45450</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="45" t="s">
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="46"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="46"/>
-      <c r="AK3" s="46"/>
-      <c r="AL3" s="46"/>
-      <c r="AM3" s="46"/>
-      <c r="AN3" s="47"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="48"/>
+      <c r="AJ3" s="48"/>
+      <c r="AK3" s="48"/>
+      <c r="AL3" s="48"/>
+      <c r="AM3" s="48"/>
+      <c r="AN3" s="49"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="36"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="48" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="49"/>
-      <c r="X4" s="49"/>
-      <c r="Y4" s="49"/>
-      <c r="Z4" s="49"/>
-      <c r="AA4" s="49"/>
-      <c r="AB4" s="49"/>
-      <c r="AC4" s="49"/>
-      <c r="AD4" s="49"/>
-      <c r="AE4" s="49"/>
-      <c r="AF4" s="49"/>
-      <c r="AG4" s="49"/>
-      <c r="AH4" s="49"/>
-      <c r="AI4" s="49"/>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="49"/>
-      <c r="AM4" s="49"/>
-      <c r="AN4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="33"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14"/>
@@ -20592,16 +22596,24 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="13"/>
       <c r="B93" s="12"/>
-      <c r="C93" s="11"/>
-      <c r="D93" s="8"/>
+      <c r="C93" s="11">
+        <v>7</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="8"/>
+      <c r="H93" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="I93" s="10"/>
       <c r="J93" s="7"/>
       <c r="K93" s="9"/>
-      <c r="L93" s="8"/>
+      <c r="L93" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="M93" s="7"/>
       <c r="N93" s="9"/>
       <c r="O93" s="8"/>
@@ -21347,6 +23359,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -21363,7 +23376,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -21371,5 +23383,6 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>